--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/10/seed4/result_data_RandomForest.xlsx
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.295399999999995</v>
+        <v>-8.200899999999997</v>
       </c>
     </row>
     <row r="10">
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.909199999999993</v>
+        <v>-8.848999999999995</v>
       </c>
     </row>
     <row r="19">
@@ -718,7 +718,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.320999999999993</v>
+        <v>-8.264499999999998</v>
       </c>
     </row>
     <row r="21">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.901400000000002</v>
+        <v>-7.683300000000002</v>
       </c>
     </row>
     <row r="28">
@@ -1404,7 +1404,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.314199999999996</v>
+        <v>-7.546799999999998</v>
       </c>
     </row>
     <row r="70">
@@ -1502,7 +1502,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.639199999999997</v>
+        <v>-7.692299999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1586,7 +1586,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.343900000000001</v>
+        <v>-8.45240000000001</v>
       </c>
     </row>
     <row r="83">
